--- a/COVID.xlsx
+++ b/COVID.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.s.dillon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\homeschoolSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C0B0BB-5EE5-4E9F-817A-31BB3F84501F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="280" windowWidth="19200" windowHeight="6910" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -17,21 +18,27 @@
     <sheet name="New Cases" sheetId="3" r:id="rId3"/>
     <sheet name="Log N-C" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="China" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
-  <si>
-    <t>​</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>​​</t>
   </si>
@@ -60,12 +67,6 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>8(+14%)</t>
-  </si>
-  <si>
-    <t>7(+17%)</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -78,130 +79,280 @@
     <t>Conneticut</t>
   </si>
   <si>
-    <t>4,950(+385)(+8%)</t>
-  </si>
-  <si>
-    <t>140(+11%)</t>
-  </si>
-  <si>
-    <t>5,172(+222)(+4%)</t>
-  </si>
-  <si>
-    <t>150(+7%)</t>
-  </si>
-  <si>
-    <t>5,429(+257)(+5%)</t>
-  </si>
-  <si>
-    <t>179(+19%)</t>
-  </si>
-  <si>
-    <t>5,655(+226)(+4%)</t>
-  </si>
-  <si>
-    <t>193(+8%)</t>
-  </si>
-  <si>
-    <t>1(n.a.)</t>
-  </si>
-  <si>
-    <t>6,906(+22%)</t>
-  </si>
-  <si>
-    <t>7,781(+13%)</t>
-  </si>
-  <si>
-    <t>8,781(+13%)</t>
-  </si>
-  <si>
     <t>Delaware</t>
   </si>
   <si>
-    <t>4(+300%)</t>
+    <t>Virginia</t>
   </si>
   <si>
-    <t>4(=)</t>
+    <t>45(+9.7%)</t>
   </si>
   <si>
-    <t>6(+50%)</t>
+    <t>62(+38%)</t>
   </si>
   <si>
-    <t>16(+100%)</t>
+    <t>121(+95%)</t>
   </si>
   <si>
-    <t>26(+63%)</t>
+    <t>198(+64%)</t>
   </si>
   <si>
-    <t>30(+15%)</t>
+    <t>​​​</t>
   </si>
   <si>
-    <t>39(+30%)</t>
+    <t>291(+47%)</t>
   </si>
   <si>
-    <t>45(+15%)</t>
+    <t>440(+51%)</t>
   </si>
   <si>
-    <t>56(+24%)</t>
+    <t>571(+30%)</t>
   </si>
   <si>
-    <t>64(+14%)</t>
+    <t>830(+45%)</t>
   </si>
   <si>
-    <t>87(+36%)</t>
+    <t>1,287(+55%)</t>
   </si>
   <si>
-    <t>119(+37%)</t>
+    <t>1,975(+53%)</t>
   </si>
   <si>
-    <t>143(+20%)</t>
+    <t>2,744(+39%)</t>
   </si>
   <si>
-    <t>165(+15%)</t>
+    <t>4,515(+64%)</t>
   </si>
   <si>
-    <t>214(+30%)</t>
+    <t>5,974(+32%)</t>
   </si>
   <si>
-    <t>232(+8%)</t>
+    <t>7,711(+29%)</t>
   </si>
   <si>
-    <t>264(+14%)</t>
+    <t>9,692(+26%)</t>
   </si>
   <si>
-    <t>319(+21%)</t>
+    <t>11,791(+22%)</t>
   </si>
   <si>
-    <t>368(+15%)</t>
+    <t>14,380(+22%)</t>
   </si>
   <si>
-    <t>393(+7%)</t>
+    <t>17,205(+20%)</t>
   </si>
   <si>
-    <t>450(+14%)</t>
+    <t>20,438(+19%)</t>
   </si>
   <si>
-    <t>593(+32%)</t>
+    <t>24,324(+19%)</t>
   </si>
   <si>
-    <t>673(+13%)</t>
+    <t>28,018(+15%)</t>
   </si>
   <si>
-    <t>783(+16%)</t>
+    <t>31,161(+11%)</t>
   </si>
   <si>
-    <t>928(+18%)</t>
+    <t>34,546(+11%)</t>
   </si>
   <si>
-    <t>1116(+20%)</t>
+    <t>37,198(+7.7%)</t>
   </si>
   <si>
-    <t>Virginia</t>
+    <t>40,171(+8.0%)</t>
+  </si>
+  <si>
+    <t>​​​​</t>
+  </si>
+  <si>
+    <t>48,315(n.a.)</t>
+  </si>
+  <si>
+    <t>55,220(+14%)</t>
+  </si>
+  <si>
+    <t>58,761(+6.4%)</t>
+  </si>
+  <si>
+    <t>63,851(+8.7%)</t>
+  </si>
+  <si>
+    <t>66,492(+4.1%)</t>
+  </si>
+  <si>
+    <t>68,500(+3.0%)</t>
+  </si>
+  <si>
+    <t>70,548(+3.0%)</t>
+  </si>
+  <si>
+    <t>72,436(+2.7%)</t>
+  </si>
+  <si>
+    <t>74,185(+2.4%)</t>
+  </si>
+  <si>
+    <t>75,002(+1.1%)</t>
+  </si>
+  <si>
+    <t>75,891(+1.2%)</t>
+  </si>
+  <si>
+    <t>76,288(+0.52%)</t>
+  </si>
+  <si>
+    <t>76,936(+0.85%)</t>
+  </si>
+  <si>
+    <t>77,150(+0.28%)</t>
+  </si>
+  <si>
+    <t>77,658(+0.66%)</t>
+  </si>
+  <si>
+    <t>78,064(+0.52%)</t>
+  </si>
+  <si>
+    <t>78,497(+0.55%)</t>
+  </si>
+  <si>
+    <t>78,824(+0.42%)</t>
+  </si>
+  <si>
+    <t>79,251(+0.54%)</t>
+  </si>
+  <si>
+    <t>79,824(+0.72%)</t>
+  </si>
+  <si>
+    <t>80,026(+0.25%)</t>
+  </si>
+  <si>
+    <t>80,151(+0.16%)</t>
+  </si>
+  <si>
+    <t>80,270(+0.15%)</t>
+  </si>
+  <si>
+    <t>80,409(+0.17%)</t>
+  </si>
+  <si>
+    <t>80,552(+0.18%)</t>
+  </si>
+  <si>
+    <t>80,651(+0.12%)</t>
+  </si>
+  <si>
+    <t>80,695(+0.05%)</t>
+  </si>
+  <si>
+    <t>80,735(+0.05%)</t>
+  </si>
+  <si>
+    <t>80,754(+0.02%)</t>
+  </si>
+  <si>
+    <t>80,778(+0.03%)</t>
+  </si>
+  <si>
+    <t>80,793(+0.02%)</t>
+  </si>
+  <si>
+    <t>80,813(+0.02%)</t>
+  </si>
+  <si>
+    <t>80,824(+0.01%)</t>
+  </si>
+  <si>
+    <t>80,844(+0.02%)</t>
+  </si>
+  <si>
+    <t>80,860(+0.02%)</t>
+  </si>
+  <si>
+    <t>80,881(+0.02%)</t>
+  </si>
+  <si>
+    <t>80,894(+0.02%)</t>
+  </si>
+  <si>
+    <t>80,928(+0.04%)</t>
+  </si>
+  <si>
+    <t>80,967(+0.05%)</t>
+  </si>
+  <si>
+    <t>81,008(+0.05%)</t>
+  </si>
+  <si>
+    <t>81,054(+0.06%)</t>
+  </si>
+  <si>
+    <t>81,093(+0.05%)</t>
+  </si>
+  <si>
+    <t>81,171(+0.10%)</t>
+  </si>
+  <si>
+    <t>81,218(+0.06%)</t>
+  </si>
+  <si>
+    <t>81,285(+0.08%)</t>
+  </si>
+  <si>
+    <t>81,340(+0.07%)</t>
+  </si>
+  <si>
+    <t>81,394(+0.06%)</t>
+  </si>
+  <si>
+    <t>81,439(+0.06%)</t>
+  </si>
+  <si>
+    <t>81,470(+0.04%)</t>
+  </si>
+  <si>
+    <t>81,518(+0.06%)</t>
+  </si>
+  <si>
+    <t>81,554(+0.04%)</t>
+  </si>
+  <si>
+    <t>81,589(+0.04%)</t>
+  </si>
+  <si>
+    <t>81,620(+0.04%)</t>
+  </si>
+  <si>
+    <t>81,639(+0.02%)</t>
+  </si>
+  <si>
+    <t>81,669(+0.04%)</t>
+  </si>
+  <si>
+    <t>81,708(+0.05%)</t>
+  </si>
+  <si>
+    <t>81,740(+0.04%)</t>
+  </si>
+  <si>
+    <t>81,802(+0.08%)</t>
+  </si>
+  <si>
+    <t>81,865(+0.08%)</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4573,7 +4723,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4640,7 +4789,830 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>China</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>China!$B$3:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43855</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>China!$E$3:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>0.68648439322027588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85023259567695542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82140432709639288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79893199800212344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82210144624226233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.768063397748593</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8267335397378397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85539444009794219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86103191109894806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83932633759474695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8887887127208095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83787952090519935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83347248531990459</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82703025005345387</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81590841741291131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82090668169553904</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81475443948013182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81421084890867457</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81839356060040458</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80214667145645591</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77829257591091983</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77771029621391574</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74905564941828251</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7544006975192532</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8349208614314334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8095920785266959</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74419365926260828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77140237577159443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70950280224837048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68299732161184568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68296182269985528</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67408079990989034</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66582738003338326</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59736995722303232</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.60425958712944183</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53227113253380043</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57541965405961437</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47682700893426361</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55332529289423604</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53317368734042558</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53862452344818712</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51352320529971596</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53693107248680805</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56264372023111342</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47016983655008815</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.42759970391988783</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42318777064983831</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.43687700322808615</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4393197116054976</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.40672384672634848</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.3349305168419392</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.3264804969708564</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26058912838753295</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.28125714414473291</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.23965797647692053</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.26511155822769994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.21220257257472108</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.26510256041877694</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.24535153029564205</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.26940925953094785</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.22696869339036993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.31203098736536289</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.32415744722106543</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.32856772667422479</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.3387317645001337</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32411285351694491</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.38540234188073175</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34057358014674693</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.37190853994044992</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.35443072973192258</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35278712252820282</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.33664608527724438</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.3036779448870624</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.34232426241403208</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.31687261411036249</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.31436967730664578</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.3036285534986925</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.26033799667718632</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30071336370598972</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.32389635799163508</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.30639593005345372</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.36484384716226292</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.36623337290994734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-340B-4621-BEAA-D07522F2727E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="433835448"/>
+        <c:axId val="433830856"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="433835448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433830856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="433830856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433835448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5201,6 +6173,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5218,7 +6706,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A924C7E-C05B-40AF-A147-14855936726A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5498,7 +7033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5508,58 +7043,58 @@
       <selection pane="bottomRight" activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>43891</v>
       </c>
@@ -5567,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>43892</v>
       </c>
@@ -5575,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>43893</v>
       </c>
@@ -5583,7 +7118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>43894</v>
       </c>
@@ -5597,7 +7132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>43895</v>
       </c>
@@ -5614,7 +7149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>43896</v>
       </c>
@@ -5634,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>43897</v>
       </c>
@@ -5657,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>43898</v>
       </c>
@@ -5680,7 +7215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>43899</v>
       </c>
@@ -5703,7 +7238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>43900</v>
       </c>
@@ -5732,7 +7267,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>43901</v>
       </c>
@@ -5770,7 +7305,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>43902</v>
       </c>
@@ -5808,7 +7343,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>43903</v>
       </c>
@@ -5852,7 +7387,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>43904</v>
       </c>
@@ -5893,7 +7428,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>43905</v>
       </c>
@@ -5931,7 +7466,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>43906</v>
       </c>
@@ -5975,7 +7510,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>43907</v>
       </c>
@@ -6016,7 +7551,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>43908</v>
       </c>
@@ -6060,7 +7595,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>43909</v>
       </c>
@@ -6104,7 +7639,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>43910</v>
       </c>
@@ -6148,7 +7683,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>43911</v>
       </c>
@@ -6192,7 +7727,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>43912</v>
       </c>
@@ -6236,7 +7771,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>43913</v>
       </c>
@@ -6280,7 +7815,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>43914</v>
       </c>
@@ -6324,9 +7859,9 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>SUM(D27:AZ27)/C27</f>
+        <f t="shared" ref="A27:A41" si="0">SUM(D27:AZ27)/C27</f>
         <v>0.68795058229096062</v>
       </c>
       <c r="B27" s="1">
@@ -6375,9 +7910,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>SUM(D28:AZ28)/C28</f>
+        <f t="shared" si="0"/>
         <v>0.67612180660273768</v>
       </c>
       <c r="B28" s="1">
@@ -6426,9 +7961,9 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>SUM(D29:AZ29)/C29</f>
+        <f t="shared" si="0"/>
         <v>0.66695046133132696</v>
       </c>
       <c r="B29" s="1">
@@ -6477,9 +8012,9 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>SUM(D30:AZ30)/C30</f>
+        <f t="shared" si="0"/>
         <v>0.61359151149828661</v>
       </c>
       <c r="B30" s="1">
@@ -6525,9 +8060,9 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>SUM(D31:AZ31)/C31</f>
+        <f t="shared" si="0"/>
         <v>0.65197578143385893</v>
       </c>
       <c r="B31" s="1">
@@ -6576,9 +8111,9 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>SUM(D32:AZ32)/C32</f>
+        <f t="shared" si="0"/>
         <v>0.65410801189898315</v>
       </c>
       <c r="B32" s="1">
@@ -6627,9 +8162,9 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>SUM(D33:AZ33)/C33</f>
+        <f t="shared" si="0"/>
         <v>0.64313582184198359</v>
       </c>
       <c r="B33" s="1">
@@ -6678,9 +8213,9 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>SUM(D34:AZ34)/C34</f>
+        <f t="shared" si="0"/>
         <v>0.6304707397069742</v>
       </c>
       <c r="B34" s="1">
@@ -6729,9 +8264,9 @@
         <v>5984</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>SUM(D35:AZ35)/C35</f>
+        <f t="shared" si="0"/>
         <v>0.61940767963712517</v>
       </c>
       <c r="B35" s="1">
@@ -6780,9 +8315,9 @@
         <v>6585</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>SUM(D36:AZ36)/C36</f>
+        <f t="shared" si="0"/>
         <v>0.61599368900835627</v>
       </c>
       <c r="B36" s="1">
@@ -6831,9 +8366,9 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>SUM(D37:AZ37)/C37</f>
+        <f t="shared" si="0"/>
         <v>0.60942717197832896</v>
       </c>
       <c r="B37" s="1">
@@ -6882,9 +8417,9 @@
         <v>7591</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>SUM(D38:AZ38)/C38</f>
+        <f t="shared" si="0"/>
         <v>0.60685326130943995</v>
       </c>
       <c r="B38" s="1">
@@ -6933,9 +8468,9 @@
         <v>7984</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>SUM(D39:AZ39)/C39</f>
+        <f t="shared" si="0"/>
         <v>0.60329241917042054</v>
       </c>
       <c r="B39" s="1">
@@ -6984,9 +8519,9 @@
         <v>8384</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>SUM(D40:AZ40)/C40</f>
+        <f t="shared" si="0"/>
         <v>0.59464382802932914</v>
       </c>
       <c r="B40" s="1">
@@ -7035,9 +8570,9 @@
         <v>8682</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>SUM(D41:AZ41)/C41</f>
+        <f t="shared" si="0"/>
         <v>0.58479928815640325</v>
       </c>
       <c r="B41" s="1">
@@ -7086,17 +8621,17 @@
         <v>9342</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K42">
         <v>6906</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K43">
         <v>7781</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K44">
         <v>8781</v>
       </c>
@@ -7107,7 +8642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7117,12 +8652,12 @@
       <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C1" t="str">
         <f>IF(C2=Cases!C2,"","!")</f>
         <v/>
@@ -7272,51 +8807,51 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>43891</v>
       </c>
@@ -7327,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>43892</v>
       </c>
@@ -7338,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>43893</v>
       </c>
@@ -7349,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>43894</v>
       </c>
@@ -7366,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>43895</v>
       </c>
@@ -7383,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>43896</v>
       </c>
@@ -7400,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>43897</v>
       </c>
@@ -7420,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>43898</v>
       </c>
@@ -7440,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>43899</v>
       </c>
@@ -7460,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>43900</v>
       </c>
@@ -7483,7 +9018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>43901</v>
       </c>
@@ -7512,7 +9047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>43902</v>
       </c>
@@ -7541,7 +9076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>43903</v>
       </c>
@@ -7579,7 +9114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>43904</v>
       </c>
@@ -7614,7 +9149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>43905</v>
       </c>
@@ -7646,7 +9181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>43906</v>
       </c>
@@ -7684,7 +9219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>43907</v>
       </c>
@@ -7719,7 +9254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>43908</v>
       </c>
@@ -7757,7 +9292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>43909</v>
       </c>
@@ -7795,7 +9330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>43910</v>
       </c>
@@ -7833,7 +9368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>43911</v>
       </c>
@@ -7871,7 +9406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>43912</v>
       </c>
@@ -7912,7 +9447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>43913</v>
       </c>
@@ -7953,7 +9488,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>43914</v>
       </c>
@@ -7997,9 +9532,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>SUM(D27:AZ27)/C27</f>
+        <f t="shared" ref="A27:A41" si="0">SUM(D27:AZ27)/C27</f>
         <v>0.64017660044150115</v>
       </c>
       <c r="B27" s="1">
@@ -8048,9 +9583,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>SUM(D28:AZ28)/C28</f>
+        <f t="shared" si="0"/>
         <v>0.63244176013805009</v>
       </c>
       <c r="B28" s="1">
@@ -8099,9 +9634,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>SUM(D29:AZ29)/C29</f>
+        <f t="shared" si="0"/>
         <v>0.60866834170854267</v>
       </c>
       <c r="B29" s="1">
@@ -8150,9 +9685,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>SUM(D30:AZ30)/C30</f>
+        <f t="shared" si="0"/>
         <v>0.56939676311917609</v>
       </c>
       <c r="B30" s="1">
@@ -8198,9 +9733,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>SUM(D31:AZ31)/C31</f>
+        <f t="shared" si="0"/>
         <v>0.65528589058000819</v>
       </c>
       <c r="B31" s="1">
@@ -8249,9 +9784,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>SUM(D32:AZ32)/C32</f>
+        <f t="shared" si="0"/>
         <v>0.65293132328308212</v>
       </c>
       <c r="B32" s="1">
@@ -8300,9 +9835,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>SUM(D33:AZ33)/C33</f>
+        <f t="shared" si="0"/>
         <v>0.6466106148187073</v>
       </c>
       <c r="B33" s="1">
@@ -8351,9 +9886,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>SUM(D34:AZ34)/C34</f>
+        <f t="shared" si="0"/>
         <v>0.64117151285292873</v>
       </c>
       <c r="B34" s="1">
@@ -8402,9 +9937,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>SUM(D35:AZ35)/C35</f>
+        <f t="shared" si="0"/>
         <v>0.64851400103075074</v>
       </c>
       <c r="B35" s="1">
@@ -8453,9 +9988,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>SUM(D36:AZ36)/C36</f>
+        <f t="shared" si="0"/>
         <v>0.65006422149279297</v>
       </c>
       <c r="B36" s="1">
@@ -8504,9 +10039,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>SUM(D37:AZ37)/C37</f>
+        <f t="shared" si="0"/>
         <v>0.66192128245005388</v>
       </c>
       <c r="B37" s="1">
@@ -8555,9 +10090,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>SUM(D38:AZ38)/C38</f>
+        <f t="shared" si="0"/>
         <v>0.66058317600167815</v>
       </c>
       <c r="B38" s="1">
@@ -8606,9 +10141,9 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>SUM(D39:AZ39)/C39</f>
+        <f t="shared" si="0"/>
         <v>0.65779679940454039</v>
       </c>
       <c r="B39" s="1">
@@ -8657,9 +10192,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>SUM(D40:AZ40)/C40</f>
+        <f t="shared" si="0"/>
         <v>0.65017751479289942</v>
       </c>
       <c r="B40" s="1">
@@ -8708,9 +10243,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>SUM(D41:AZ41)/C41</f>
+        <f t="shared" si="0"/>
         <v>0.64295374628076818</v>
       </c>
       <c r="B41" s="1">
@@ -8766,19 +10301,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C2" t="str">
         <f>Cases!C2</f>
         <v>USA</v>
@@ -8836,13 +10371,13 @@
         <v>Washington</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f>Cases!B3</f>
         <v>43891</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>Cases!B4</f>
         <v>43892</v>
@@ -8904,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>Cases!B5</f>
         <v>43893</v>
@@ -8966,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>Cases!B6</f>
         <v>43894</v>
@@ -9028,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>Cases!B7</f>
         <v>43895</v>
@@ -9090,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f>Cases!B8</f>
         <v>43896</v>
@@ -9152,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>Cases!B9</f>
         <v>43897</v>
@@ -9214,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>Cases!B10</f>
         <v>43898</v>
@@ -9276,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>Cases!B11</f>
         <v>43899</v>
@@ -9338,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f>Cases!B12</f>
         <v>43900</v>
@@ -9400,7 +10935,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>Cases!B13</f>
         <v>43901</v>
@@ -9462,7 +10997,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f>Cases!B14</f>
         <v>43902</v>
@@ -9524,7 +11059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>Cases!B15</f>
         <v>43903</v>
@@ -9586,7 +11121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f>Cases!B16</f>
         <v>43904</v>
@@ -9648,7 +11183,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f>Cases!B17</f>
         <v>43905</v>
@@ -9710,7 +11245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f>Cases!B18</f>
         <v>43906</v>
@@ -9772,7 +11307,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f>Cases!B19</f>
         <v>43907</v>
@@ -9834,7 +11369,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>Cases!B20</f>
         <v>43908</v>
@@ -9896,7 +11431,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f>Cases!B21</f>
         <v>43909</v>
@@ -9958,7 +11493,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f>Cases!B22</f>
         <v>43910</v>
@@ -10020,7 +11555,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f>Cases!B23</f>
         <v>43911</v>
@@ -10082,7 +11617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f>Cases!B24</f>
         <v>43912</v>
@@ -10144,7 +11679,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f>Cases!B25</f>
         <v>43913</v>
@@ -10206,7 +11741,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f>Cases!B26</f>
         <v>43914</v>
@@ -10268,7 +11803,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f>Cases!B27</f>
         <v>43915</v>
@@ -10330,7 +11865,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f>Cases!B28</f>
         <v>43916</v>
@@ -10392,7 +11927,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f>Cases!B29</f>
         <v>43917</v>
@@ -10454,7 +11989,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f>Cases!B30</f>
         <v>43918</v>
@@ -10516,7 +12051,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f>Cases!B31</f>
         <v>43919</v>
@@ -10578,7 +12113,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f>Cases!B32</f>
         <v>43920</v>
@@ -10640,7 +12175,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f>Cases!B33</f>
         <v>43921</v>
@@ -10702,7 +12237,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f>Cases!B34</f>
         <v>43922</v>
@@ -10764,7 +12299,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f>Cases!B35</f>
         <v>43923</v>
@@ -10826,7 +12361,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f>Cases!B36</f>
         <v>43924</v>
@@ -10888,7 +12423,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>Cases!B37</f>
         <v>43925</v>
@@ -10950,7 +12485,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f>Cases!B38</f>
         <v>43926</v>
@@ -11012,7 +12547,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f>Cases!B39</f>
         <v>43927</v>
@@ -11074,7 +12609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>Cases!B40</f>
         <v>43928</v>
@@ -11136,7 +12671,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f>Cases!B41</f>
         <v>43929</v>
@@ -11204,19 +12739,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q5" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView topLeftCell="Q5" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="str">
         <f>Cases!C2</f>
         <v>USA</v>
@@ -11275,7 +12810,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <f>Cases!B3</f>
         <v>43891</v>
@@ -11337,7 +12872,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>Cases!B4</f>
         <v>43892</v>
@@ -11399,7 +12934,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>Cases!B5</f>
         <v>43893</v>
@@ -11461,7 +12996,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>Cases!B6</f>
         <v>43894</v>
@@ -11523,7 +13058,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>Cases!B7</f>
         <v>43895</v>
@@ -11585,7 +13120,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f>Cases!B8</f>
         <v>43896</v>
@@ -11647,7 +13182,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>Cases!B9</f>
         <v>43897</v>
@@ -11709,7 +13244,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <f>Cases!B10</f>
         <v>43898</v>
@@ -11771,7 +13306,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <f>Cases!B11</f>
         <v>43899</v>
@@ -11833,7 +13368,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <f>Cases!B12</f>
         <v>43900</v>
@@ -11895,7 +13430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <f>Cases!B13</f>
         <v>43901</v>
@@ -11957,7 +13492,7 @@
         <v>0.83296102155046259</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <f>Cases!B14</f>
         <v>43902</v>
@@ -12019,7 +13554,7 @@
         <v>0.77848641285781384</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>Cases!B15</f>
         <v>43903</v>
@@ -12081,7 +13616,7 @@
         <v>0.73650492909124299</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <f>Cases!B16</f>
         <v>43904</v>
@@ -12143,7 +13678,7 @@
         <v>0.74257963390773141</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <f>Cases!B17</f>
         <v>43905</v>
@@ -12205,7 +13740,7 @@
         <v>0.66579105907601677</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f>Cases!B18</f>
         <v>43906</v>
@@ -12267,7 +13802,7 @@
         <v>0.7289873244307099</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <f>Cases!B19</f>
         <v>43907</v>
@@ -12329,7 +13864,7 @@
         <v>0.72064018630780124</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f>Cases!B20</f>
         <v>43908</v>
@@ -12391,7 +13926,7 @@
         <v>0.67663947208042863</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <f>Cases!B21</f>
         <v>43909</v>
@@ -12453,7 +13988,7 @@
         <v>0.72957359012376599</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f>Cases!B22</f>
         <v>43910</v>
@@ -12515,7 +14050,7 @@
         <v>0.72530696295723829</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <f>Cases!B23</f>
         <v>43911</v>
@@ -12577,7 +14112,7 @@
         <v>0.68183222286406586</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <f>Cases!B24</f>
         <v>43912</v>
@@ -12639,7 +14174,7 @@
         <v>0.74679339796755617</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <f>Cases!B25</f>
         <v>43913</v>
@@ -12701,7 +14236,7 @@
         <v>0.69920720888470766</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <f>Cases!B26</f>
         <v>43914</v>
@@ -12763,7 +14298,7 @@
         <v>0.70286818701701259</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f>Cases!B27</f>
         <v>43915</v>
@@ -12825,7 +14360,7 @@
         <v>0.70580303477914674</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <f>Cases!B28</f>
         <v>43916</v>
@@ -12887,7 +14422,7 @@
         <v>0.59951669736565349</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <f>Cases!B29</f>
         <v>43917</v>
@@ -12949,7 +14484,7 @@
         <v>0.79782903243775205</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f>Cases!B30</f>
         <v>43918</v>
@@ -13011,7 +14546,7 @@
         <v>0.75965582673961352</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <f>Cases!B31</f>
         <v>43919</v>
@@ -13073,7 +14608,7 @@
         <v>0.76177064690383212</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <f>Cases!B32</f>
         <v>43920</v>
@@ -13135,7 +14670,7 @@
         <v>0.77644916701364908</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <f>Cases!B33</f>
         <v>43921</v>
@@ -13197,7 +14732,7 @@
         <v>0.70989332886731238</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <f>Cases!B34</f>
         <v>43922</v>
@@ -13259,7 +14794,7 @@
         <v>0.70722234421304309</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <f>Cases!B35</f>
         <v>43923</v>
@@ -13321,7 +14856,7 @@
         <v>0.72772918155820399</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <f>Cases!B36</f>
         <v>43924</v>
@@ -13383,7 +14918,7 @@
         <v>0.67159408718287794</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <f>Cases!B37</f>
         <v>43925</v>
@@ -13445,7 +14980,7 @@
         <v>0.720532109386956</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <f>Cases!B38</f>
         <v>43926</v>
@@ -13507,7 +15042,7 @@
         <v>0.66485031575584086</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <f>Cases!B39</f>
         <v>43927</v>
@@ -13569,7 +15104,7 @@
         <v>0.66320690955515504</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <f>Cases!B40</f>
         <v>43928</v>
@@ -13631,7 +15166,7 @@
         <v>0.6281937331692069</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <f>Cases!B41</f>
         <v>43929</v>
@@ -13693,22 +15228,22 @@
         <v>0.71013389772026947</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -13718,57 +15253,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="C2:M85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C85" sqref="C2:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f>G2</f>
-        <v>43901</v>
+        <v>43846</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D4" si="0">_xlfn.NUMBERVALUE(LEFT(I2,FIND("(",I2)-1))</f>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <f>J2</f>
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>43901</v>
+        <v>43846</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M28" si="1">INT(M3/((100+L3)/100))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C24" si="2">G3</f>
-        <v>43902</v>
+        <f t="shared" ref="C3:C66" si="2">G3</f>
+        <v>43847</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D2:E15" si="3">_xlfn.NUMBERVALUE(LEFT(I3,FIND("(",I3)-1))</f>
-        <v>4</v>
+        <f t="shared" ref="D3:D5" si="3">_xlfn.NUMBERVALUE(LEFT(I3,FIND("(",I3)-1))</f>
+        <v>62</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E33" si="4">J3</f>
@@ -13779,16 +15311,13 @@
         <v/>
       </c>
       <c r="G3" s="1">
-        <v>43902</v>
+        <v>43847</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <v>65</v>
@@ -13798,34 +15327,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <f t="shared" si="2"/>
-        <v>43903</v>
+        <v>43848</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F39" si="5">IF(G4-G3&gt;1,"!","")</f>
+        <f t="shared" ref="F4:F67" si="5">IF(G4-G3&gt;1,"!","")</f>
         <v/>
       </c>
       <c r="G4" s="1">
-        <v>43903</v>
+        <v>43848</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L4">
         <v>37</v>
@@ -13835,14 +15361,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <f t="shared" si="2"/>
-        <v>43904</v>
+        <v>43849</v>
       </c>
       <c r="D5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="E5">
         <f t="shared" si="4"/>
@@ -13853,16 +15379,13 @@
         <v/>
       </c>
       <c r="G5" s="1">
-        <v>43904</v>
+        <v>43849</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L5">
         <v>24</v>
@@ -13872,14 +15395,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <f t="shared" si="2"/>
-        <v>43905</v>
+        <v>43850</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:E24" si="6">_xlfn.NUMBERVALUE(LEFT(I6,FIND("(",I6)-1))</f>
-        <v>7</v>
+        <f t="shared" ref="D6:D24" si="6">_xlfn.NUMBERVALUE(LEFT(I6,FIND("(",I6)-1))</f>
+        <v>291</v>
       </c>
       <c r="E6">
         <f t="shared" si="4"/>
@@ -13890,16 +15413,13 @@
         <v/>
       </c>
       <c r="G6" s="1">
-        <v>43905</v>
+        <v>43850</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>24</v>
@@ -13909,14 +15429,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <f t="shared" si="2"/>
-        <v>43906</v>
+        <v>43851</v>
       </c>
       <c r="D7">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>440</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
@@ -13927,16 +15447,13 @@
         <v/>
       </c>
       <c r="G7" s="1">
-        <v>43906</v>
+        <v>43851</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>13</v>
@@ -13946,14 +15463,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <f t="shared" si="2"/>
-        <v>43907</v>
+        <v>43852</v>
       </c>
       <c r="D8">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>571</v>
       </c>
       <c r="E8">
         <f t="shared" si="4"/>
@@ -13964,16 +15481,13 @@
         <v/>
       </c>
       <c r="G8" s="1">
-        <v>43907</v>
+        <v>43852</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>20</v>
@@ -13983,14 +15497,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <f t="shared" si="2"/>
-        <v>43908</v>
+        <v>43853</v>
       </c>
       <c r="D9">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>830</v>
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
@@ -14001,16 +15515,13 @@
         <v/>
       </c>
       <c r="G9" s="1">
-        <v>43908</v>
+        <v>43853</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L9">
         <v>18</v>
@@ -14020,14 +15531,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <f t="shared" si="2"/>
-        <v>43909</v>
+        <v>43854</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10" si="7">_xlfn.NUMBERVALUE(LEFT(I10,FIND("(",I10)-1))</f>
-        <v>30</v>
+        <v>1287</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
@@ -14038,16 +15549,13 @@
         <v/>
       </c>
       <c r="G10" s="1">
-        <v>43909</v>
+        <v>43854</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L10">
         <v>12</v>
@@ -14057,14 +15565,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <f t="shared" si="2"/>
-        <v>43910</v>
+        <v>43855</v>
       </c>
       <c r="D11">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>1975</v>
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
@@ -14075,16 +15583,13 @@
         <v/>
       </c>
       <c r="G11" s="1">
-        <v>43910</v>
+        <v>43855</v>
       </c>
       <c r="H11" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>17</v>
@@ -14094,14 +15599,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <f t="shared" si="2"/>
-        <v>43911</v>
+        <v>43856</v>
       </c>
       <c r="D12">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>2744</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
@@ -14112,16 +15617,13 @@
         <v/>
       </c>
       <c r="G12" s="1">
-        <v>43911</v>
+        <v>43856</v>
       </c>
       <c r="H12" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L12">
         <v>16</v>
@@ -14131,14 +15633,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <f t="shared" si="2"/>
-        <v>43912</v>
+        <v>43857</v>
       </c>
       <c r="D13">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>4515</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
@@ -14149,16 +15651,13 @@
         <v/>
       </c>
       <c r="G13" s="1">
-        <v>43912</v>
+        <v>43857</v>
       </c>
       <c r="H13" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -14168,14 +15667,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <f t="shared" si="2"/>
-        <v>43913</v>
+        <v>43858</v>
       </c>
       <c r="D14">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>5974</v>
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
@@ -14186,16 +15685,13 @@
         <v/>
       </c>
       <c r="G14" s="1">
-        <v>43913</v>
+        <v>43858</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L14">
         <v>18</v>
@@ -14205,14 +15701,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <f t="shared" si="2"/>
-        <v>43914</v>
+        <v>43859</v>
       </c>
       <c r="D15">
         <f t="shared" si="6"/>
-        <v>87</v>
+        <v>7711</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
@@ -14223,16 +15719,13 @@
         <v/>
       </c>
       <c r="G15" s="1">
-        <v>43914</v>
+        <v>43859</v>
       </c>
       <c r="H15" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L15">
         <v>11</v>
@@ -14242,14 +15735,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <f t="shared" si="2"/>
-        <v>43915</v>
+        <v>43860</v>
       </c>
       <c r="D16">
         <f t="shared" si="6"/>
-        <v>119</v>
+        <v>9692</v>
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
@@ -14260,16 +15753,13 @@
         <v/>
       </c>
       <c r="G16" s="1">
-        <v>43915</v>
+        <v>43860</v>
       </c>
       <c r="H16" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -14279,34 +15769,31 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <f t="shared" si="2"/>
-        <v>43916</v>
+        <v>43861</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
-        <v>143</v>
+        <v>11791</v>
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G17" s="1">
-        <v>43916</v>
+        <v>43861</v>
       </c>
       <c r="H17" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="L17">
         <v>11</v>
@@ -14316,34 +15803,31 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <f t="shared" si="2"/>
-        <v>43917</v>
+        <v>43862</v>
       </c>
       <c r="D18">
         <f t="shared" si="6"/>
-        <v>165</v>
+        <v>14380</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G18" s="1">
-        <v>43917</v>
+        <v>43862</v>
       </c>
       <c r="H18" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -14353,34 +15837,31 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <f t="shared" si="2"/>
-        <v>43918</v>
+        <v>43863</v>
       </c>
       <c r="D19">
         <f t="shared" si="6"/>
-        <v>214</v>
+        <v>17205</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G19" s="1">
-        <v>43918</v>
+        <v>43863</v>
       </c>
       <c r="H19" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L19">
         <v>24</v>
@@ -14390,34 +15871,31 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <f t="shared" si="2"/>
-        <v>43919</v>
+        <v>43864</v>
       </c>
       <c r="D20">
         <f t="shared" si="6"/>
-        <v>232</v>
+        <v>20438</v>
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G20" s="1">
-        <v>43919</v>
+        <v>43864</v>
       </c>
       <c r="H20" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L20">
         <v>16</v>
@@ -14427,34 +15905,31 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <f t="shared" si="2"/>
-        <v>43920</v>
+        <v>43865</v>
       </c>
       <c r="D21">
         <f t="shared" si="6"/>
-        <v>264</v>
+        <v>24324</v>
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G21" s="1">
-        <v>43920</v>
+        <v>43865</v>
       </c>
       <c r="H21" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>15</v>
@@ -14464,34 +15939,31 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <f t="shared" si="2"/>
-        <v>43921</v>
+        <v>43866</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
-        <v>319</v>
+        <v>28018</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G22" s="1">
-        <v>43921</v>
+        <v>43866</v>
       </c>
       <c r="H22" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L22">
         <v>17</v>
@@ -14501,34 +15973,31 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <f t="shared" si="2"/>
-        <v>43922</v>
+        <v>43867</v>
       </c>
       <c r="D23">
         <f t="shared" si="6"/>
-        <v>368</v>
+        <v>31161</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G23" s="1">
-        <v>43922</v>
+        <v>43867</v>
       </c>
       <c r="H23" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L23">
         <v>9</v>
@@ -14538,34 +16007,31 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <f t="shared" si="2"/>
-        <v>43923</v>
+        <v>43868</v>
       </c>
       <c r="D24">
         <f t="shared" si="6"/>
-        <v>393</v>
+        <v>34546</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G24" s="1">
-        <v>43923</v>
+        <v>43868</v>
       </c>
       <c r="H24" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L24">
         <v>9</v>
@@ -14575,30 +16041,31 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>43869</v>
+      </c>
       <c r="D25">
         <f t="shared" ref="D25:E37" si="8">_xlfn.NUMBERVALUE(LEFT(I25,FIND("(",I25)-1))</f>
-        <v>450</v>
+        <v>37198</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G25" s="1">
-        <v>43924</v>
+        <v>43869</v>
       </c>
       <c r="H25" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L25">
         <v>10</v>
@@ -14608,30 +16075,31 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>43870</v>
+      </c>
       <c r="D26">
         <f t="shared" ref="D26" si="9">_xlfn.NUMBERVALUE(LEFT(I26,FIND("(",I26)-1))</f>
-        <v>593</v>
+        <v>40171</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G26" s="1">
-        <v>43925</v>
+        <v>43870</v>
       </c>
       <c r="H26" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L26">
         <v>6</v>
@@ -14641,30 +16109,31 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>43871</v>
+      </c>
       <c r="D27">
         <f t="shared" si="8"/>
-        <v>673</v>
+        <v>48315</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G27" s="1">
-        <v>43926</v>
+        <v>43871</v>
       </c>
       <c r="H27" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="L27">
         <v>9</v>
@@ -14674,30 +16143,31 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <f t="shared" si="2"/>
+        <v>43872</v>
+      </c>
       <c r="D28">
-        <f t="shared" ref="D28:D39" si="10">_xlfn.NUMBERVALUE(LEFT(I28,FIND("(",I28)-1))</f>
-        <v>783</v>
+        <f t="shared" ref="D28:D85" si="10">_xlfn.NUMBERVALUE(LEFT(I28,FIND("(",I28)-1))</f>
+        <v>55220</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G28" s="1">
-        <v>43927</v>
+        <v>43872</v>
       </c>
       <c r="H28" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="L28">
         <v>5</v>
@@ -14707,30 +16177,31 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <f t="shared" si="2"/>
+        <v>43873</v>
+      </c>
       <c r="D29">
         <f t="shared" si="10"/>
-        <v>928</v>
+        <v>58761</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G29" s="1">
-        <v>43928</v>
+        <v>43873</v>
       </c>
       <c r="H29" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -14740,30 +16211,31 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>43874</v>
+      </c>
       <c r="D30">
         <f t="shared" si="10"/>
-        <v>1116</v>
+        <v>63851</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G30" s="1">
-        <v>43929</v>
+        <v>43874</v>
       </c>
       <c r="H30" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -14773,207 +16245,230 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <f t="shared" si="2"/>
+        <v>43875</v>
+      </c>
       <c r="D31">
         <f t="shared" si="10"/>
-        <v>6906</v>
+        <v>66492</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G31" s="1">
-        <v>43927</v>
+        <v>43875</v>
       </c>
       <c r="H31" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <f t="shared" si="2"/>
+        <v>43876</v>
+      </c>
       <c r="D32">
         <f t="shared" si="10"/>
-        <v>7781</v>
+        <v>68500</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G32" s="1">
-        <v>43928</v>
+        <v>43876</v>
       </c>
       <c r="H32" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <f t="shared" si="2"/>
+        <v>43877</v>
+      </c>
       <c r="D33">
         <f t="shared" si="10"/>
-        <v>8781</v>
+        <v>70548</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G33" s="1">
-        <v>43929</v>
+        <v>43877</v>
       </c>
       <c r="H33" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <f t="shared" si="2"/>
+        <v>43878</v>
+      </c>
       <c r="D34">
         <f t="shared" si="10"/>
-        <v>4950</v>
-      </c>
-      <c r="E34">
+        <v>72436</v>
+      </c>
+      <c r="E34" t="e">
         <f t="shared" si="8"/>
-        <v>140</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G34" s="1">
-        <v>43926</v>
+        <v>43878</v>
       </c>
       <c r="H34" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <f t="shared" si="2"/>
+        <v>43879</v>
+      </c>
       <c r="D35">
         <f t="shared" si="10"/>
-        <v>5172</v>
-      </c>
-      <c r="E35">
+        <v>74185</v>
+      </c>
+      <c r="E35" t="e">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G35" s="1">
-        <v>43927</v>
+        <v>43879</v>
       </c>
       <c r="H35" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <f t="shared" si="2"/>
+        <v>43880</v>
+      </c>
       <c r="D36">
         <f t="shared" si="10"/>
-        <v>5429</v>
-      </c>
-      <c r="E36">
+        <v>75002</v>
+      </c>
+      <c r="E36" t="e">
         <f t="shared" si="8"/>
-        <v>179</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G36" s="1">
-        <v>43928</v>
+        <v>43880</v>
       </c>
       <c r="H36" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <f t="shared" si="2"/>
+        <v>43881</v>
+      </c>
       <c r="D37">
         <f t="shared" si="10"/>
-        <v>5655</v>
-      </c>
-      <c r="E37">
+        <v>75891</v>
+      </c>
+      <c r="E37" t="e">
         <f t="shared" si="8"/>
-        <v>193</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G37" s="1">
-        <v>43929</v>
+        <v>43881</v>
       </c>
       <c r="H37" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D38" t="e">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <f t="shared" si="2"/>
+        <v>43882</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>76288</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E18:E39" si="11">J38</f>
+        <f t="shared" ref="E38:E39" si="11">J38</f>
         <v>0</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D39" t="e">
+      <c r="G38" s="1">
+        <v>43882</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <f t="shared" si="2"/>
+        <v>43883</v>
+      </c>
+      <c r="D39">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>76936</v>
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
@@ -14983,10 +16478,2407 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>43883</v>
+      </c>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <f t="shared" si="2"/>
+        <v>43884</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>77150</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G40" s="1">
+        <v>43884</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <f t="shared" si="2"/>
+        <v>43885</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="10"/>
+        <v>77658</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G41" s="1">
+        <v>43885</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <f t="shared" si="2"/>
+        <v>43886</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="10"/>
+        <v>78064</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G42" s="1">
+        <v>43886</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <f t="shared" si="2"/>
+        <v>43887</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>78497</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G43" s="1">
+        <v>43887</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>43888</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="10"/>
+        <v>78824</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G44" s="1">
+        <v>43888</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>43889</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="10"/>
+        <v>79251</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G45" s="1">
+        <v>43889</v>
+      </c>
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>43890</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="10"/>
+        <v>79824</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G46" s="1">
+        <v>43890</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <f t="shared" si="2"/>
+        <v>43891</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="10"/>
+        <v>80026</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G47" s="1">
+        <v>43891</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <f t="shared" si="2"/>
+        <v>43892</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="10"/>
+        <v>80151</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G48" s="1">
+        <v>43892</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>43893</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="10"/>
+        <v>80270</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G49" s="1">
+        <v>43893</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>43894</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="10"/>
+        <v>80409</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G50" s="1">
+        <v>43894</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <f t="shared" si="2"/>
+        <v>43895</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="10"/>
+        <v>80552</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G51" s="1">
+        <v>43895</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <f t="shared" si="2"/>
+        <v>43896</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="10"/>
+        <v>80651</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G52" s="1">
+        <v>43896</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <f t="shared" si="2"/>
+        <v>43897</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>80695</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G53" s="1">
+        <v>43897</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <f t="shared" si="2"/>
+        <v>43898</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>80735</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G54" s="1">
+        <v>43898</v>
+      </c>
+      <c r="H54" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <f t="shared" si="2"/>
+        <v>43899</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="10"/>
+        <v>80754</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G55" s="1">
+        <v>43899</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <f t="shared" si="2"/>
+        <v>43900</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="10"/>
+        <v>80778</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G56" s="1">
+        <v>43900</v>
+      </c>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <f t="shared" si="2"/>
+        <v>43901</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="10"/>
+        <v>80793</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G57" s="1">
+        <v>43901</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <f t="shared" si="2"/>
+        <v>43902</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="10"/>
+        <v>80813</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G58" s="1">
+        <v>43902</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <f t="shared" si="2"/>
+        <v>43903</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="10"/>
+        <v>80824</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G59" s="1">
+        <v>43903</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <f t="shared" si="2"/>
+        <v>43904</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="10"/>
+        <v>80844</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G60" s="1">
+        <v>43904</v>
+      </c>
+      <c r="H60" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <f t="shared" si="2"/>
+        <v>43905</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="10"/>
+        <v>80860</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G61" s="1">
+        <v>43905</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <f t="shared" si="2"/>
+        <v>43906</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="10"/>
+        <v>80881</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G62" s="1">
+        <v>43906</v>
+      </c>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <f t="shared" si="2"/>
+        <v>43907</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="10"/>
+        <v>80894</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G63" s="1">
+        <v>43907</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <f t="shared" si="2"/>
+        <v>43908</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="10"/>
+        <v>80928</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G64" s="1">
+        <v>43908</v>
+      </c>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <f t="shared" si="2"/>
+        <v>43909</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="10"/>
+        <v>80967</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G65" s="1">
+        <v>43909</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <f t="shared" si="2"/>
+        <v>43910</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="10"/>
+        <v>81008</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G66" s="1">
+        <v>43910</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C85" si="12">G67</f>
+        <v>43911</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="10"/>
+        <v>81054</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G67" s="1">
+        <v>43911</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <f t="shared" si="12"/>
+        <v>43912</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="10"/>
+        <v>81093</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F77" si="13">IF(G68-G67&gt;1,"!","")</f>
+        <v/>
+      </c>
+      <c r="G68" s="1">
+        <v>43912</v>
+      </c>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <f t="shared" si="12"/>
+        <v>43913</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>81171</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G69" s="1">
+        <v>43913</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
+        <f t="shared" si="12"/>
+        <v>43914</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="10"/>
+        <v>81218</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G70" s="1">
+        <v>43914</v>
+      </c>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <f t="shared" si="12"/>
+        <v>43915</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="10"/>
+        <v>81285</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G71" s="1">
+        <v>43915</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <f t="shared" si="12"/>
+        <v>43916</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>81340</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G72" s="1">
+        <v>43916</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <f t="shared" si="12"/>
+        <v>43917</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>81394</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G73" s="1">
+        <v>43917</v>
+      </c>
+      <c r="H73" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <f t="shared" si="12"/>
+        <v>43918</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>81439</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G74" s="1">
+        <v>43918</v>
+      </c>
+      <c r="H74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <f t="shared" si="12"/>
+        <v>43919</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>81470</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G75" s="1">
+        <v>43919</v>
+      </c>
+      <c r="H75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <f t="shared" si="12"/>
+        <v>43920</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>81518</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G76" s="1">
+        <v>43920</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
+        <f t="shared" si="12"/>
+        <v>43921</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>81554</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G77" s="1">
+        <v>43921</v>
+      </c>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="1">
+        <f t="shared" si="12"/>
+        <v>43922</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>81589</v>
+      </c>
+      <c r="G78" s="1">
+        <v>43922</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
+        <f t="shared" si="12"/>
+        <v>43923</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>81620</v>
+      </c>
+      <c r="G79" s="1">
+        <v>43923</v>
+      </c>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <f t="shared" si="12"/>
+        <v>43924</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>81639</v>
+      </c>
+      <c r="G80" s="1">
+        <v>43924</v>
+      </c>
+      <c r="H80" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
+        <f t="shared" si="12"/>
+        <v>43925</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>81669</v>
+      </c>
+      <c r="G81" s="1">
+        <v>43925</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
+        <f t="shared" si="12"/>
+        <v>43926</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>81708</v>
+      </c>
+      <c r="G82" s="1">
+        <v>43926</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
+        <f t="shared" si="12"/>
+        <v>43927</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>81740</v>
+      </c>
+      <c r="G83" s="1">
+        <v>43927</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C84" s="1">
+        <f t="shared" si="12"/>
+        <v>43928</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>81802</v>
+      </c>
+      <c r="G84" s="1">
+        <v>43928</v>
+      </c>
+      <c r="H84" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
+        <f t="shared" si="12"/>
+        <v>43929</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>81865</v>
+      </c>
+      <c r="G85" s="1">
+        <v>43929</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1594BCE6-85FF-45F8-B8D9-191D2E8C659E}">
+  <dimension ref="B1:E85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>43846</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>43847</v>
+      </c>
+      <c r="C3">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <f>C3-C2</f>
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <f>LOG(D3)/LOG(C3)</f>
+        <v>0.68648439322027588</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>43848</v>
+      </c>
+      <c r="C4">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="0">C4-C3</f>
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="1">LOG(D4)/LOG(C4)</f>
+        <v>0.85023259567695542</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>43849</v>
+      </c>
+      <c r="C5">
+        <v>198</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.82140432709639288</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>43850</v>
+      </c>
+      <c r="C6">
+        <v>291</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.79893199800212344</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="C7">
+        <v>440</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.82210144624226233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43852</v>
+      </c>
+      <c r="C8">
+        <v>571</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.768063397748593</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>43853</v>
+      </c>
+      <c r="C9">
+        <v>830</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.8267335397378397</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>43854</v>
+      </c>
+      <c r="C10">
+        <v>1287</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>457</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.85539444009794219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>43855</v>
+      </c>
+      <c r="C11">
+        <v>1975</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.86103191109894806</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>43856</v>
+      </c>
+      <c r="C12">
+        <v>2744</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>769</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.83932633759474695</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>43857</v>
+      </c>
+      <c r="C13">
+        <v>4515</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1771</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.8887887127208095</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>43858</v>
+      </c>
+      <c r="C14">
+        <v>5974</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1459</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.83787952090519935</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>43859</v>
+      </c>
+      <c r="C15">
+        <v>7711</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1737</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.83347248531990459</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>43860</v>
+      </c>
+      <c r="C16">
+        <v>9692</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.82703025005345387</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>43861</v>
+      </c>
+      <c r="C17">
+        <v>11791</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2099</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.81590841741291131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C18">
+        <v>14380</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2589</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.82090668169553904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>43863</v>
+      </c>
+      <c r="C19">
+        <v>17205</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2825</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.81475443948013182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>43864</v>
+      </c>
+      <c r="C20">
+        <v>20438</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3233</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.81421084890867457</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>43865</v>
+      </c>
+      <c r="C21">
+        <v>24324</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>3886</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.81839356060040458</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C22">
+        <v>28018</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3694</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.80214667145645591</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C23">
+        <v>31161</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3143</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.77829257591091983</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C24">
+        <v>34546</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3385</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.77771029621391574</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C25">
+        <v>37198</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2652</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.74905564941828251</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C26">
+        <v>40171</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2973</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0.7544006975192532</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C27">
+        <v>48315</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8144</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0.8349208614314334</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C28">
+        <v>55220</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>6905</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0.8095920785266959</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C29">
+        <v>58761</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>3541</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0.74419365926260828</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C30">
+        <v>63851</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5090</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0.77140237577159443</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C31">
+        <v>66492</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2641</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0.70950280224837048</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C32">
+        <v>68500</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0.68299732161184568</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C33">
+        <v>70548</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0.68296182269985528</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C34">
+        <v>72436</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1888</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0.67408079990989034</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C35">
+        <v>74185</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>1749</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0.66582738003338326</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>43880</v>
+      </c>
+      <c r="C36">
+        <v>75002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>817</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0.59736995722303232</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>43881</v>
+      </c>
+      <c r="C37">
+        <v>75891</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>889</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0.60425958712944183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>43882</v>
+      </c>
+      <c r="C38">
+        <v>76288</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0.53227113253380043</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>43883</v>
+      </c>
+      <c r="C39">
+        <v>76936</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0.57541965405961437</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>43884</v>
+      </c>
+      <c r="C40">
+        <v>77150</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0.47682700893426361</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>43885</v>
+      </c>
+      <c r="C41">
+        <v>77658</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0.55332529289423604</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>43886</v>
+      </c>
+      <c r="C42">
+        <v>78064</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0.53317368734042558</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>43887</v>
+      </c>
+      <c r="C43">
+        <v>78497</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0.53862452344818712</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>43888</v>
+      </c>
+      <c r="C44">
+        <v>78824</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0.51352320529971596</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>43889</v>
+      </c>
+      <c r="C45">
+        <v>79251</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>427</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>0.53693107248680805</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>43890</v>
+      </c>
+      <c r="C46">
+        <v>79824</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0.56264372023111342</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C47">
+        <v>80026</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>0.47016983655008815</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C48">
+        <v>80151</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0.42759970391988783</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C49">
+        <v>80270</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0.42318777064983831</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>43894</v>
+      </c>
+      <c r="C50">
+        <v>80409</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>0.43687700322808615</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C51">
+        <v>80552</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>0.4393197116054976</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>43896</v>
+      </c>
+      <c r="C52">
+        <v>80651</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0.40672384672634848</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C53">
+        <v>80695</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>0.3349305168419392</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C54">
+        <v>80735</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0.3264804969708564</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C55">
+        <v>80754</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>0.26058912838753295</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C56">
+        <v>80778</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0.28125714414473291</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C57">
+        <v>80793</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0.23965797647692053</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C58">
+        <v>80813</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0.26511155822769994</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>43903</v>
+      </c>
+      <c r="C59">
+        <v>80824</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0.21220257257472108</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>43904</v>
+      </c>
+      <c r="C60">
+        <v>80844</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0.26510256041877694</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>43905</v>
+      </c>
+      <c r="C61">
+        <v>80860</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>0.24535153029564205</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C62">
+        <v>80881</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>0.26940925953094785</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>43907</v>
+      </c>
+      <c r="C63">
+        <v>80894</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>0.22696869339036993</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>43908</v>
+      </c>
+      <c r="C64">
+        <v>80928</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>0.31203098736536289</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>43909</v>
+      </c>
+      <c r="C65">
+        <v>80967</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>0.32415744722106543</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>43910</v>
+      </c>
+      <c r="C66">
+        <v>81008</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0.32856772667422479</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>43911</v>
+      </c>
+      <c r="C67">
+        <v>81054</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0.3387317645001337</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C68">
+        <v>81093</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D85" si="2">C68-C67</f>
+        <v>39</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E85" si="3">LOG(D68)/LOG(C68)</f>
+        <v>0.32411285351694491</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>43913</v>
+      </c>
+      <c r="C69">
+        <v>81171</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0.38540234188073175</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C70">
+        <v>81218</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>0.34057358014674693</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>43915</v>
+      </c>
+      <c r="C71">
+        <v>81285</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>0.37190853994044992</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C72">
+        <v>81340</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>0.35443072973192258</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>43917</v>
+      </c>
+      <c r="C73">
+        <v>81394</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>0.35278712252820282</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>43918</v>
+      </c>
+      <c r="C74">
+        <v>81439</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>0.33664608527724438</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>43919</v>
+      </c>
+      <c r="C75">
+        <v>81470</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>0.3036779448870624</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>43920</v>
+      </c>
+      <c r="C76">
+        <v>81518</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>0.34232426241403208</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>43921</v>
+      </c>
+      <c r="C77">
+        <v>81554</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>0.31687261411036249</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>43922</v>
+      </c>
+      <c r="C78">
+        <v>81589</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0.31436967730664578</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>43923</v>
+      </c>
+      <c r="C79">
+        <v>81620</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>0.3036285534986925</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C80">
+        <v>81639</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>0.26033799667718632</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>43925</v>
+      </c>
+      <c r="C81">
+        <v>81669</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>0.30071336370598972</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C82">
+        <v>81708</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>0.32389635799163508</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>43927</v>
+      </c>
+      <c r="C83">
+        <v>81740</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>0.30639593005345372</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C84">
+        <v>81802</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>0.36484384716226292</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C85">
+        <v>81865</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>0.36623337290994734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>